--- a/biology/Botanique/Oncidiinae/Oncidiinae.xlsx
+++ b/biology/Botanique/Oncidiinae/Oncidiinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Oncidiinae sont une sous-tribu de la famille des Orchidaceae.
-Cette sous-tribu se compose d'environ 70 genres avec plus de mille espèces, dont Oncidium son plus grand genre. Ces genres consistent en un seul type floral basé sur l'angle de la fixation de la lèvre à la colonne, reflétant les préférences des pollinisateurs. Cela a cependant conduit à plusieurs résultats peu fiables et à des taxons polyphylétiques au sein d’Oncidium. Ceux-ci ont été transférés à Gomesa et un nouveau genre Nohawilliamsia, a été décrit pour les orthostates d'Oncidium[1].
+Cette sous-tribu se compose d'environ 70 genres avec plus de mille espèces, dont Oncidium son plus grand genre. Ces genres consistent en un seul type floral basé sur l'angle de la fixation de la lèvre à la colonne, reflétant les préférences des pollinisateurs. Cela a cependant conduit à plusieurs résultats peu fiables et à des taxons polyphylétiques au sein d’Oncidium. Ceux-ci ont été transférés à Gomesa et un nouveau genre Nohawilliamsia, a été décrit pour les orthostates d'Oncidium.
 La plupart des espèces d'oncidioïdes ont des pseudobulbes bien développés et des feuilles en double.
 Il est possible de former des hybrides dans certains cas entre plusieurs genres au sein des Oncidiinae. Ces hybrides sont souvent appelés communément « intergénériques ».
 L'espèce Erycina pusilla est un organisme modèle du fait de sa petite taille et de sa facilité de culture in vitro.
@@ -515,9 +527,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-tribu des Oncidiinae a été créée en 1881 par le botaniste anglais George Bentham (1800-1884)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-tribu des Oncidiinae a été créée en 1881 par le botaniste anglais George Bentham (1800-1884).
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (26 novembre 2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (26 novembre 2022) :
 genre Ada Lindl.
 genre Amparoa Schltr.
 genre Aspasia Lindl., 1833
